--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283592.526572782</v>
+        <v>281154.0534730349</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12222289.2920963</v>
+        <v>12222289.29209629</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>350.9944805422314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>52.48349153350271</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>249.8107330807136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>175.1325804520544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>192.0524966157174</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>354.0578832699152</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>71.61041014643855</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>59.09222624065535</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>320.486567854439</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.34416082770882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>106.1851916846476</v>
+        <v>191.7148211434527</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137272</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.88641949135589</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819386</v>
+        <v>74.95497330698053</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.434538210425039</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>60.46574022124272</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>221.2030256723189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.306220275312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1570.29816221914</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C2" t="n">
-        <v>1201.335645278728</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D2" t="n">
-        <v>843.0699466719777</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>161.5226430043336</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678286</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3073.271747790267</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2720.503092520153</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2347.037334259073</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1956.898002283262</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1371.459627555448</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1371.459627555448</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1143.470076657431</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2245.732315283597</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="C5" t="n">
-        <v>1876.769798343185</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="D5" t="n">
-        <v>1518.504099736435</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.715847138191</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>721.7299423485831</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259409</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283597</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.89460572423</v>
+        <v>443.0505103572868</v>
       </c>
       <c r="C7" t="n">
-        <v>844.89460572423</v>
+        <v>274.11432742938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>274.11432742938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>126.2012338469868</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>126.2012338469868</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.676735765777</v>
+        <v>845.4915543310567</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.68718486776</v>
+        <v>845.4915543310567</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.89460572423</v>
+        <v>624.6989751875266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1914.140475048884</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1555.874776442133</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>2283.102991989295</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>678.6720730524787</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>509.7358901245718</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983421</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>675.2351809199101</v>
+        <v>678.6720730524787</v>
       </c>
       <c r="Y10" t="n">
-        <v>675.2351809199101</v>
+        <v>678.6720730524787</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941683</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.487785285881</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079994</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043033</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145016</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014861</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,22 +5525,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2385.886578306278</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2203.031743961183</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1983.430278984124</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1694.355052328322</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1439.670564122435</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1150.253394085474</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>922.2638431874569</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>701.4712640439268</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5762,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
         <v>555.8158034133954</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>354.3925542082087</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>287.6498750679147</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>77.94152538942132</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856988</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.48882721876579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>210.9709121168632</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>5.909506488878939</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.31997266427211</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982018.6741185101</v>
+        <v>982018.6741185096</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1060879.514932242</v>
+        <v>1060879.514932243</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019033</v>
+        <v>335917.9865019032</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389277</v>
@@ -26326,7 +26326,7 @@
         <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605028</v>
@@ -26335,16 +26335,16 @@
         <v>363215.9698605026</v>
       </c>
       <c r="J2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="M2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605026</v>
@@ -26353,7 +26353,7 @@
         <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050428</v>
+        <v>49019.07124050408</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.9549531693</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26445,7 +26445,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26454,7 +26454,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149779.771027587</v>
+        <v>-1149966.164416126</v>
       </c>
       <c r="C6" t="n">
-        <v>169960.900924365</v>
+        <v>169960.9009243646</v>
       </c>
       <c r="D6" t="n">
-        <v>169960.9009243652</v>
+        <v>169960.9009243655</v>
       </c>
       <c r="E6" t="n">
-        <v>-75705.94195257788</v>
+        <v>-75740.67987801366</v>
       </c>
       <c r="F6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="G6" t="n">
-        <v>249706.5198547776</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="H6" t="n">
-        <v>249706.5198547775</v>
+        <v>249671.7819293418</v>
       </c>
       <c r="I6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293418</v>
       </c>
       <c r="J6" t="n">
-        <v>32175.31745750007</v>
+        <v>32140.57953206412</v>
       </c>
       <c r="K6" t="n">
-        <v>249706.5198547776</v>
+        <v>249671.7819293416</v>
       </c>
       <c r="L6" t="n">
-        <v>249706.5198547775</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="M6" t="n">
-        <v>164651.4919192656</v>
+        <v>164616.75399383</v>
       </c>
       <c r="N6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="O6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="P6" t="n">
-        <v>249706.5198547776</v>
+        <v>249671.7819293418</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30.93588953003035</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>123.2718505855387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>77.00506287177365</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>162.6305450049655</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>56.86384238353821</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>77.0050628717738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>106.9335820183729</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>61.44380221782279</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.8937778283448</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.5244637043895</v>
+        <v>33.99483424558449</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
